--- a/biology/Zoologie/Cryptotis/Cryptotis.xlsx
+++ b/biology/Zoologie/Cryptotis/Cryptotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptotis est un genre de musaraignes.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cryptotis avia G. M. Allen, 1923
 Cryptotis endersi Setzer, 1950
@@ -527,9 +541,43 @@
 Cryptotis parva (Say, 1823)
 Cryptotis squamipes (J. A. Allen, 1912)
 Cryptotis thomasi (Merriam, 1897)
-Cryptotis venezuelensis Quiroga-Carmona, 2013
-Selon ITIS
-Cryptotis alticola (Merriam, 1895)
+Cryptotis venezuelensis Quiroga-Carmona, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cryptotis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cryptotis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cryptotis alticola (Merriam, 1895)
 Cryptotis brachyonyx Woodman, 2003
 Cryptotis colombiana Woodman et Timm, 1993
 Cryptotis endersi Setzer, 1950
@@ -562,31 +610,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Cryptotis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cryptotis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Homonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cryptotis Günther, 1863 est un synonyme de Adelotus Ogilby, 1907.</t>
         </is>
